--- a/crowdStaffingAPIs.xlsx
+++ b/crowdStaffingAPIs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Add Category</t>
   </si>
@@ -217,13 +217,460 @@
   </si>
   <si>
     <t>resume_file</t>
+  </si>
+  <si>
+    <t>To Fetch All Jobs</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/jobs/getAllJobs</t>
+  </si>
+  <si>
+    <t>JOB : GET ALL</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/jobs/postNewJob</t>
+  </si>
+  <si>
+    <t>To Delete Particualr Job</t>
+  </si>
+  <si>
+    <t>JOB: Delete</t>
+  </si>
+  <si>
+    <t>JOB: ADD</t>
+  </si>
+  <si>
+    <r>
+      <t>{
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jobTitle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"jobbbb title",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jobDesc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>": "job desecriptoi",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lastDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"31/07/2020",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>comapanyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"12465232",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jobTypeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"212121",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>specialism</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"PHP, NOde",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>minSa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l":"100000",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>maxSal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"500000",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>minExp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">":"1",
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>maxExp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"5",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"Male",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>job_category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"1321",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>qualification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"B",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>add_country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"India",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>add_state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"Uttarakhd",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>add_city</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"Dehradun",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>full_address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"Ddddddd",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>latitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"28.015",
+    "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>longitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>":"78.022"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>http://localhost:5000/jobs/deleteJob/5f168e7b7607a1318cdee09a</t>
+  </si>
+  <si>
+    <t>JOB: Fetch</t>
+  </si>
+  <si>
+    <t>To Fetch Job Posted By Particualr Company</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/jobs/getMyPostedJobs/</t>
+  </si>
+  <si>
+    <t>{
+    "comapany_id":"1246h5232"
+}</t>
+  </si>
+  <si>
+    <t>To Add New Job</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/jobs/updateJob/5f16945b1d425239985035c0</t>
+  </si>
+  <si>
+    <t>To Update Particular Job</t>
+  </si>
+  <si>
+    <t>JOB: UPDATE</t>
+  </si>
+  <si>
+    <t>{
+    "jobTitle":"jobbsdfsdfsbb title",
+    "jobDesc": "job desecrsdfsdfsdfiptoi",
+    "lastDate":"31/07/2020",
+    "jobTypeId":"212121",
+    "specialism":"PHsdfsdP, NOde",
+    "minSal":"100000",
+    "maxSal":"500000",
+    "minExp":"1",
+    "maxExp":"5",
+    "gender":"Male",
+    "job_category":"1321",
+    "qualification":"B",
+    "add_country":"India",
+    "add_state":"Uttarakhd",
+    "add_city":"Dehradun",
+    "full_address":"Ddddddd",
+    "latitude":"28.015",
+    "longitude":"78.022"
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +713,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -291,6 +730,32 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -316,48 +781,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -661,311 +1127,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E20"/>
+  <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="4" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="77.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="55.44140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="38" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="55.44140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="12" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="289.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" ht="69" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="276" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/crowdStaffingAPIs.xlsx
+++ b/crowdStaffingAPIs.xlsx
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="9" t="s">
